--- a/Assets/Excel/考勤.xlsx
+++ b/Assets/Excel/考勤.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Projects\XiaoChunWorkHelper\Assets\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="打卡表" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="穿着记录表" sheetId="4" r:id="rId6"/>
     <sheet name="汇总表" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="903">
   <si>
     <t>Name</t>
   </si>
@@ -2948,7 +2953,8 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="0"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>谭诗颖</t>
     </r>
@@ -3002,18 +3008,22 @@
   <si>
     <t>bj:1</t>
   </si>
+  <si>
+    <t>正常- 22:01 
+ 迟到8分钟-13:08;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟到18分钟-11:18; 
+ 早退110分钟-18:10;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3024,11 +3034,11 @@
     <font>
       <sz val="12"/>
       <name val="Arial Narrow"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3036,6 +3046,7 @@
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3043,6 +3054,7 @@
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3050,160 +3062,25 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3234,194 +3111,8 @@
         <bgColor rgb="FFFDF9F9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3474,251 +3165,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3749,61 +3198,17 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4125,29 +3530,28 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="31" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:31">
+    <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4242,7 +3646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="26" customHeight="1" spans="1:31">
+    <row r="2" spans="1:31" ht="26.1" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -4279,8 +3683,8 @@
       <c r="L2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>42</v>
+      <c r="M2" s="9" t="s">
+        <v>901</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>43</v>
@@ -4294,8 +3698,8 @@
       <c r="Q2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>47</v>
+      <c r="R2" s="9" t="s">
+        <v>902</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>48</v>
@@ -4338,16 +3742,16 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.05"/>
+    <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:AE48"/>
   <sheetViews>
@@ -4361,7 +3765,7 @@
     <col min="2" max="31" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:31">
+    <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
@@ -4456,7 +3860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="26" customHeight="1" spans="1:31">
+    <row r="2" spans="1:31" ht="26.1" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
@@ -4551,7 +3955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" ht="26" customHeight="1" spans="1:31">
+    <row r="3" spans="1:31" ht="26.1" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
@@ -4646,7 +4050,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="1:31">
+    <row r="4" spans="1:31" ht="26.1" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
@@ -4741,7 +4145,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:31">
+    <row r="5" spans="1:31" ht="26.1" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>91</v>
       </c>
@@ -4836,7 +4240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1" spans="1:31">
+    <row r="6" spans="1:31" ht="26.1" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
@@ -4931,7 +4335,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" ht="26" customHeight="1" spans="1:31">
+    <row r="7" spans="1:31" ht="26.1" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>114</v>
       </c>
@@ -5026,7 +4430,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1" spans="1:31">
+    <row r="8" spans="1:31" ht="26.1" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>139</v>
       </c>
@@ -5121,7 +4525,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1" spans="1:31">
+    <row r="9" spans="1:31" ht="26.1" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>166</v>
       </c>
@@ -5216,7 +4620,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1" spans="1:31">
+    <row r="10" spans="1:31" ht="26.1" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>191</v>
       </c>
@@ -5311,7 +4715,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1" spans="1:31">
+    <row r="11" spans="1:31" ht="26.1" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>215</v>
       </c>
@@ -5406,7 +4810,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1" spans="1:31">
+    <row r="12" spans="1:31" ht="26.1" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>239</v>
       </c>
@@ -5501,7 +4905,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1" spans="1:31">
+    <row r="13" spans="1:31" ht="26.1" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>241</v>
       </c>
@@ -5596,7 +5000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1" spans="1:31">
+    <row r="14" spans="1:31" ht="26.1" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>242</v>
       </c>
@@ -5691,7 +5095,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1" spans="1:31">
+    <row r="15" spans="1:31" ht="26.1" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>267</v>
       </c>
@@ -5786,7 +5190,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1" spans="1:31">
+    <row r="16" spans="1:31" ht="26.1" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>289</v>
       </c>
@@ -5881,7 +5285,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" ht="26" customHeight="1" spans="1:31">
+    <row r="17" spans="1:31" ht="26.1" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>298</v>
       </c>
@@ -5976,7 +5380,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1" spans="1:31">
+    <row r="18" spans="1:31" ht="26.1" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>325</v>
       </c>
@@ -6071,7 +5475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" ht="26" customHeight="1" spans="1:31">
+    <row r="19" spans="1:31" ht="26.1" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>326</v>
       </c>
@@ -6166,7 +5570,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" ht="26" customHeight="1" spans="1:31">
+    <row r="20" spans="1:31" ht="26.1" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>350</v>
       </c>
@@ -6261,7 +5665,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" ht="26" customHeight="1" spans="1:31">
+    <row r="21" spans="1:31" ht="26.1" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>375</v>
       </c>
@@ -6356,7 +5760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" ht="26" customHeight="1" spans="1:31">
+    <row r="22" spans="1:31" ht="26.1" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>395</v>
       </c>
@@ -6451,7 +5855,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" ht="26" customHeight="1" spans="1:31">
+    <row r="23" spans="1:31" ht="26.1" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>418</v>
       </c>
@@ -6546,7 +5950,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" ht="26" customHeight="1" spans="1:31">
+    <row r="24" spans="1:31" ht="26.1" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>441</v>
       </c>
@@ -6641,7 +6045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" ht="26" customHeight="1" spans="1:31">
+    <row r="25" spans="1:31" ht="26.1" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>466</v>
       </c>
@@ -6736,7 +6140,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" ht="26" customHeight="1" spans="1:31">
+    <row r="26" spans="1:31" ht="26.1" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>490</v>
       </c>
@@ -6831,7 +6235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" ht="26" customHeight="1" spans="1:31">
+    <row r="27" spans="1:31" ht="26.1" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>512</v>
       </c>
@@ -6926,7 +6330,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" ht="26" customHeight="1" spans="1:31">
+    <row r="28" spans="1:31" ht="26.1" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>533</v>
       </c>
@@ -7021,7 +6425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" ht="26" customHeight="1" spans="1:31">
+    <row r="29" spans="1:31" ht="26.1" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>554</v>
       </c>
@@ -7116,7 +6520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" ht="26" customHeight="1" spans="1:31">
+    <row r="30" spans="1:31" ht="26.1" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>575</v>
       </c>
@@ -7211,7 +6615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" ht="26" customHeight="1" spans="1:31">
+    <row r="31" spans="1:31" ht="26.1" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>598</v>
       </c>
@@ -7306,7 +6710,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" ht="26" customHeight="1" spans="1:31">
+    <row r="32" spans="1:31" ht="26.1" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>622</v>
       </c>
@@ -7401,7 +6805,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" ht="26" customHeight="1" spans="1:31">
+    <row r="33" spans="1:31" ht="26.1" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>625</v>
       </c>
@@ -7496,7 +6900,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" ht="26" customHeight="1" spans="1:31">
+    <row r="34" spans="1:31" ht="26.1" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>630</v>
       </c>
@@ -7591,7 +6995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="26" customHeight="1" spans="1:31">
+    <row r="35" spans="1:31" ht="26.1" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
@@ -7686,7 +7090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" ht="26" customHeight="1" spans="1:31">
+    <row r="36" spans="1:31" ht="26.1" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>653</v>
       </c>
@@ -7781,7 +7185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" ht="26" customHeight="1" spans="1:31">
+    <row r="37" spans="1:31" ht="26.1" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>677</v>
       </c>
@@ -7876,7 +7280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" ht="26" customHeight="1" spans="1:31">
+    <row r="38" spans="1:31" ht="26.1" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>699</v>
       </c>
@@ -7971,7 +7375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" ht="26" customHeight="1" spans="1:31">
+    <row r="39" spans="1:31" ht="26.1" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>719</v>
       </c>
@@ -8066,7 +7470,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" ht="26" customHeight="1" spans="1:31">
+    <row r="40" spans="1:31" ht="26.1" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>729</v>
       </c>
@@ -8161,7 +7565,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="41" ht="26" customHeight="1" spans="1:31">
+    <row r="41" spans="1:31" ht="26.1" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>747</v>
       </c>
@@ -8256,7 +7660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" ht="26" customHeight="1" spans="1:31">
+    <row r="42" spans="1:31" ht="26.1" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>764</v>
       </c>
@@ -8351,7 +7755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" ht="26" customHeight="1" spans="1:31">
+    <row r="43" spans="1:31" ht="26.1" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>765</v>
       </c>
@@ -8446,7 +7850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" ht="26" customHeight="1" spans="1:31">
+    <row r="44" spans="1:31" ht="26.1" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>784</v>
       </c>
@@ -8541,7 +7945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" ht="26" customHeight="1" spans="1:31">
+    <row r="45" spans="1:31" ht="26.1" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>807</v>
       </c>
@@ -8636,7 +8040,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="46" ht="26" customHeight="1" spans="1:31">
+    <row r="46" spans="1:31" ht="26.1" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>830</v>
       </c>
@@ -8731,7 +8135,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="47" ht="26" customHeight="1" spans="1:31">
+    <row r="47" spans="1:31" ht="26.1" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>849</v>
       </c>
@@ -8826,7 +8230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" ht="26" customHeight="1" spans="1:31">
+    <row r="48" spans="1:31" ht="26.1" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>241</v>
       </c>
@@ -8922,13 +8326,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -8938,7 +8342,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="3" width="2.625" customWidth="1"/>
@@ -9137,13 +8541,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9153,14 +8557,14 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="3" customWidth="1"/>
     <col min="3" max="6" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9180,7 +8584,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -9202,13 +8606,13 @@
       <c r="H2" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -9218,7 +8622,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -9239,7 +8643,7 @@
         <v>0.40625</v>
       </c>
       <c r="C2" s="2">
-        <v>0.791666666666667</v>
+        <v>0.79166666666666696</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9247,10 +8651,10 @@
         <v>879</v>
       </c>
       <c r="B3" s="2">
-        <v>0.458333333333333</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="C3" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9269,21 +8673,20 @@
         <v>894</v>
       </c>
       <c r="B5" s="2">
-        <v>0.541666666666667</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="C5" s="2">
-        <v>0.916666666666667</v>
+        <v>0.91666666666666696</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9292,7 +8695,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1">
         <v>1</v>
       </c>
@@ -9333,7 +8736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9341,22 +8744,22 @@
         <v>895</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9364,27 +8767,27 @@
         <v>895</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9392,27 +8795,27 @@
         <v>895</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9448,23 +8851,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F34:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1">
         <v>1</v>
       </c>
@@ -9478,7 +8880,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:5">
+    <row r="2" spans="1:5" ht="54">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9500,37 +8902,37 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9543,27 +8945,27 @@
         <v>895</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9599,7 +9001,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>